--- a/PerformanceComparisons.xlsx
+++ b/PerformanceComparisons.xlsx
@@ -2331,7 +2331,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:L42"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
